--- a/data/landslide_incidents/landslide_incidents.xlsx
+++ b/data/landslide_incidents/landslide_incidents.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desktop\AI4ER\03 - MRes\Easter 2023\MRes Project\ArcticCCAM\data\landslide_incidents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C55290-AF12-4ABB-B59C-F74CF65F0F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89836686-8F0C-48B0-978E-D08ED79580D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="3750" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lanslide_incidents" sheetId="1" r:id="rId1"/>
@@ -6860,8 +6860,8 @@
   <dimension ref="A1:AI887"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G73" sqref="G73"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
